--- a/docs/pesquisas/Dados-Financeiros.xlsx
+++ b/docs/pesquisas/Dados-Financeiros.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3043828b489041ce/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3043828b489041ce/Área de Trabalho/covidinho/docs/pesquisas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="458" documentId="8_{CCBEA57C-5CED-428C-809B-7A7D53CA56A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F53C634-9C2B-4099-9165-0C6EEF4D7BB9}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="8_{CCBEA57C-5CED-428C-809B-7A7D53CA56A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23C06808-738B-4C02-89CC-B835E946686F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2E2AD438-D9C6-4243-AEEF-A1BFDFC569CA}"/>
   </bookViews>
@@ -236,10 +236,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -297,16 +296,10 @@
     <xf numFmtId="8" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2499,6 +2492,1131 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Manutenção de serviços</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hospital de Clínicas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alimentação escolar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Atividades de Apoio Social</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hospital Municipal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rede de Atenção Básica</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Unidades de Atenção Secundária</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Assist Farmacêutica</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serviços Contratados</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos por cidade'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10546704.029999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4480492.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21287326.510000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000549.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37435389.149999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2133410.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8287174.3399999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255212.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1056407.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9421437.2899999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E6C-458C-B96C-4F4B0CF6FEC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Manutenção de serviços</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hospital de Clínicas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alimentação escolar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Atividades de Apoio Social</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hospital Municipal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rede de Atenção Básica</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Unidades de Atenção Secundária</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Assist Farmacêutica</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serviços Contratados</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos por cidade'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13646.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11185214.289999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9698516.6199999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3307134.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63560177.729999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1261844.4099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7980514.2699999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1521904.6399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1034589.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>693400.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E6C-458C-B96C-4F4B0CF6FEC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2022:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Manutenção de serviços</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hospital de Clínicas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alimentação escolar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Atividades de Apoio Social</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hospital Municipal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rede de Atenção Básica</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Unidades de Atenção Secundária</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Assist Farmacêutica</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serviços Contratados</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos por cidade'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>337753.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10866635.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36678694.789999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477784.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>939027.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>581192.18999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1666334.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77602.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E6C-458C-B96C-4F4B0CF6FEC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1830513087"/>
+        <c:axId val="1801902207"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1830513087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1801902207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1801902207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;#,##0.00_);[Red]\(&quot;R$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830513087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$A$24:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Atendimento em clínicas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Benefícios eventuais </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Espaços culturais</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Despesas com publicidade</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Merenda escolar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Serviços administrativos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vigilância sanitária</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Programa Saúde Família</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção frota</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Despesas Unidades Cras</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Prevenção de doenças</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Manut. casa de Passagem</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Despesas Unidades Creas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos por cidade'!$B$24:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>27685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411278.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>545534.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349874.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>510487.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>268311.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213096.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2986400.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134042.14000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>423981.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FC0-47B3-A758-3E1FD4ABDEBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$A$24:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Atendimento em clínicas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Benefícios eventuais </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Espaços culturais</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Despesas com publicidade</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Merenda escolar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Serviços administrativos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vigilância sanitária</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Programa Saúde Família</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção frota</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Despesas Unidades Cras</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Prevenção de doenças</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Manut. casa de Passagem</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Despesas Unidades Creas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos por cidade'!$C$24:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>66767.039999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97976.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149675.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>271175.09999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95460.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7FC0-47B3-A758-3E1FD4ABDEBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2022:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos por cidade'!$A$24:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Atendimento em clínicas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Benefícios eventuais </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Espaços culturais</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Despesas com publicidade</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Merenda escolar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Serviços administrativos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vigilância sanitária</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Programa Saúde Família</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção frota</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Despesas Unidades Cras</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Prevenção de doenças</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Manut. casa de Passagem</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Despesas Unidades Creas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos por cidade'!$D$24:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>71405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35299.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7FC0-47B3-A758-3E1FD4ABDEBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1830523759"/>
+        <c:axId val="1801911807"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1830523759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1801911807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1801911807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830523759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2659,6 +3777,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4641,6 +5839,1016 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4824,7 +7032,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17493</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8580</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>140533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B299563-B03D-6468-E4E9-8252A01D0F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>577451</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61F65A4-DDCE-C63F-B1DF-97217EEE8329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5124,7 +7408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5327A0C0-CC29-4369-A634-76ADAB594DDD}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
@@ -5138,7 +7422,7 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5155,7 +7439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5172,7 +7456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5189,7 +7473,7 @@
         <v>90679759.450000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5206,7 +7490,7 @@
         <v>45032978.509999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5222,9 +7506,6 @@
       <c r="E5" s="1">
         <v>8269660.3200000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5237,388 +7518,387 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB7BEB0-8657-4B37-AB20-B2D15C222C71}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" style="3" customWidth="1"/>
-    <col min="2" max="4" width="30.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="30.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>10546704.029999999</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>13646.99</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>337753.83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>4480492.38</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>11185214.289999999</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>10866635.18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>21287326.510000002</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>9698516.6199999992</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>2000549.88</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>3307134.97</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>37435389.149999999</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>63560177.729999997</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>36678694.789999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>2133410.89</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>1261844.4099999999</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>477784.46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>8287174.3399999999</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>7980514.2699999996</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>939027.53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>255212.88</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>1521904.6399999999</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>581192.18999999994</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>1056407.25</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>1034589.74</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>1666334.74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>9421437.2899999991</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>693400.54</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>77602.58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>27685</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>66767.039999999994</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>71405</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>411278.94</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>97976.8</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>545534.16</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>202000</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>349874.2</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>510487.5</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>268311.13</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12">
         <v>35299.67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>213096.24</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>2986400.91</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>157365</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>134042.14000000001</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>149675.97</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>423981.73</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12">
         <v>271175.09999999998</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12">
         <v>95460.88</v>
       </c>
-      <c r="D36" s="13"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
